--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psap-Gpr37.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psap-Gpr37.xlsx
@@ -537,28 +537,28 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>108.595075</v>
+        <v>114.056483</v>
       </c>
       <c r="H2">
-        <v>325.785225</v>
+        <v>342.169449</v>
       </c>
       <c r="I2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="J2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1401733333333333</v>
+        <v>0.2614153333333333</v>
       </c>
       <c r="N2">
-        <v>0.42052</v>
+        <v>0.784246</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -567,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>15.22213364633334</v>
+        <v>29.81611352227267</v>
       </c>
       <c r="R2">
-        <v>136.999202817</v>
+        <v>268.345021700454</v>
       </c>
       <c r="S2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
       <c r="T2">
-        <v>0.04639022893696804</v>
+        <v>0.05607005241237744</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,22 +605,22 @@
         <v>755.183854</v>
       </c>
       <c r="I3">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="J3">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.1401733333333333</v>
+        <v>0.2614153333333333</v>
       </c>
       <c r="N3">
-        <v>0.42052</v>
+        <v>0.784246</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>35.28554603156444</v>
+        <v>65.80554630712044</v>
       </c>
       <c r="R3">
-        <v>317.56991428408</v>
+        <v>592.249916764084</v>
       </c>
       <c r="S3">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
       <c r="T3">
-        <v>0.1075345018380187</v>
+        <v>0.1237492078808041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,28 +661,28 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.13644799999999</v>
+        <v>70.67310566666667</v>
       </c>
       <c r="H4">
-        <v>258.409344</v>
+        <v>212.019317</v>
       </c>
       <c r="I4">
-        <v>0.03679623171250852</v>
+        <v>0.03474282771699605</v>
       </c>
       <c r="J4">
-        <v>0.03679623171250853</v>
+        <v>0.03474282771699606</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1401733333333333</v>
+        <v>0.2614153333333333</v>
       </c>
       <c r="N4">
-        <v>0.42052</v>
+        <v>0.784246</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -691,16 +691,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>12.07403303765333</v>
+        <v>18.47503347555356</v>
       </c>
       <c r="R4">
-        <v>108.66629733888</v>
+        <v>166.275301279982</v>
       </c>
       <c r="S4">
-        <v>0.03679623171250852</v>
+        <v>0.03474282771699605</v>
       </c>
       <c r="T4">
-        <v>0.03679623171250853</v>
+        <v>0.03474282771699606</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,28 +723,28 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1894.44458</v>
+        <v>1597.720744</v>
       </c>
       <c r="H5">
-        <v>5683.33374</v>
+        <v>4793.162232</v>
       </c>
       <c r="I5">
-        <v>0.8092790375125046</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="J5">
-        <v>0.8092790375125047</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1401733333333333</v>
+        <v>0.2614153333333333</v>
       </c>
       <c r="N5">
-        <v>0.42052</v>
+        <v>0.784246</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -753,16 +753,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>265.5506115938667</v>
+        <v>417.6687008663413</v>
       </c>
       <c r="R5">
-        <v>2389.9555043448</v>
+        <v>3759.018307797072</v>
       </c>
       <c r="S5">
-        <v>0.8092790375125046</v>
+        <v>0.7854379119898224</v>
       </c>
       <c r="T5">
-        <v>0.8092790375125047</v>
+        <v>0.7854379119898224</v>
       </c>
     </row>
   </sheetData>
